--- a/Assets/_Tables/AnimationEvents.xlsx
+++ b/Assets/_Tables/AnimationEvents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Workspace\ProjectDemo\Assets\_ProcessAssets\_Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Workspace\ProjectDemo\Assets\_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>AnimationName</t>
   </si>
@@ -79,16 +79,30 @@
     <t>Parameter_6</t>
   </si>
   <si>
-    <t>beijiEdit</t>
+    <t>1_101</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>OnActionFinish</t>
+    <t>1_102</t>
+  </si>
+  <si>
+    <t>1_103</t>
+  </si>
+  <si>
+    <t>1_104</t>
+  </si>
+  <si>
+    <t>OnAnimationStart</t>
+  </si>
+  <si>
+    <t>OnAttackStart</t>
+  </si>
+  <si>
+    <t>OnAttackFinish</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>OnActionStart</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>OnAnimationFinish</t>
   </si>
 </sst>
 </file>
@@ -634,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,18 +745,36 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5">
         <v>1</v>
       </c>
       <c r="N2" s="6"/>
@@ -752,9 +784,133 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
     </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/_Tables/AnimationEvents.xlsx
+++ b/Assets/_Tables/AnimationEvents.xlsx
@@ -145,7 +145,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -229,6 +235,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent3" xfId="1"/>
@@ -651,22 +660,22 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -681,7 +690,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -690,7 +699,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -699,7 +708,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -708,7 +717,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -741,7 +750,7 @@
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -750,8 +759,8 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>8</v>
+      <c r="E2" s="8">
+        <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>24</v>
@@ -759,8 +768,8 @@
       <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
-        <v>18</v>
+      <c r="H2" s="8">
+        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>25</v>
@@ -768,8 +777,8 @@
       <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="5">
-        <v>30</v>
+      <c r="K2" s="8">
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>26</v>
@@ -788,8 +797,8 @@
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
+      <c r="B3" s="8">
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>23</v>
@@ -797,8 +806,8 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>10</v>
+      <c r="E3" s="8">
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
@@ -806,8 +815,8 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>24</v>
+      <c r="H3" s="8">
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>25</v>
@@ -815,8 +824,8 @@
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>30</v>
+      <c r="K3" s="8">
+        <v>40</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>26</v>
@@ -829,8 +838,8 @@
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
+      <c r="B4" s="8">
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>23</v>
@@ -838,8 +847,8 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>11</v>
+      <c r="E4" s="8">
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>24</v>
@@ -847,8 +856,8 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>20</v>
+      <c r="H4" s="8">
+        <v>29</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>25</v>
@@ -856,8 +865,8 @@
       <c r="J4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>30</v>
+      <c r="K4" s="8">
+        <v>37</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>26</v>
@@ -870,8 +879,8 @@
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
+      <c r="B5" s="8">
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>23</v>
@@ -879,8 +888,8 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>8</v>
+      <c r="E5" s="8">
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -888,8 +897,8 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>38</v>
+      <c r="H5" s="8">
+        <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>25</v>
@@ -897,8 +906,8 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5">
-        <v>40</v>
+      <c r="K5" s="8">
+        <v>57</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>26</v>
